--- a/src/test/resources/testData/Keywords.xlsx
+++ b/src/test/resources/testData/Keywords.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emirzayev\Documents\Main Framework\YFramework\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emirzayev\Documents\YFrameworkFinal\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3AAA2E-B14E-4A4C-80D1-F008D7E764AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719E0AC6-6B5E-458B-94D8-4503F7E91766}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,27 +25,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Michelle</t>
-  </si>
-  <si>
-    <t>Lisa</t>
-  </si>
-  <si>
-    <t>Omar</t>
-  </si>
-  <si>
-    <t>Names</t>
-  </si>
-  <si>
-    <t>Mudriy</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+  <si>
+    <t>ExpenseName</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>businessPurpose</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>projectName</t>
+  </si>
+  <si>
+    <t>Yoll</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>"09/03/2020"</t>
+  </si>
+  <si>
+    <t>relationshipIndex</t>
+  </si>
+  <si>
+    <t>Cake</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>Cohort 1</t>
+  </si>
+  <si>
+    <t>Kabobs</t>
+  </si>
+  <si>
+    <t>Pizza</t>
   </si>
 </sst>
 </file>
@@ -82,8 +103,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,46 +386,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="22.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="24.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="21.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="21.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="16.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="21.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="23.28515625" collapsed="true"/>
+    <col min="8" max="16384" style="1" width="9.140625" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>60</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>